--- a/BackTest/2019-10-26 BackTest LTC.xlsx
+++ b/BackTest/2019-10-26 BackTest LTC.xlsx
@@ -451,17 +451,13 @@
         <v>62160</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>62300</v>
-      </c>
-      <c r="K2" t="n">
-        <v>62300</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>62210</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>62350</v>
-      </c>
-      <c r="K3" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>62260</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>62350</v>
-      </c>
-      <c r="K4" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>62300</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K5" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>62360</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>62500</v>
-      </c>
-      <c r="K6" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>62380</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K7" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>62360</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>62350</v>
-      </c>
-      <c r="K8" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>62340</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>62250</v>
-      </c>
-      <c r="K9" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>62310</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>62250</v>
-      </c>
-      <c r="K10" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>62290</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>62300</v>
-      </c>
-      <c r="K11" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>62280</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>62350</v>
-      </c>
-      <c r="K12" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>62380</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>62450</v>
-      </c>
-      <c r="K13" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>62460</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>62600</v>
-      </c>
-      <c r="K14" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>62540</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>62550</v>
-      </c>
-      <c r="K15" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>62560</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>62400</v>
-      </c>
-      <c r="K16" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>62570</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>62350</v>
-      </c>
-      <c r="K17" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>62490</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>62350</v>
-      </c>
-      <c r="K18" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>62430</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>62300</v>
-      </c>
-      <c r="K19" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>62390</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>62450</v>
-      </c>
-      <c r="K20" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>62370</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>62350</v>
-      </c>
-      <c r="K21" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>62370</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>62300</v>
-      </c>
-      <c r="K22" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>62360</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>62300</v>
-      </c>
-      <c r="K23" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>62390</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>62500</v>
-      </c>
-      <c r="K24" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>62450</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>62750</v>
-      </c>
-      <c r="K25" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>62520</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>62750</v>
-      </c>
-      <c r="K26" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>62700</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>62800</v>
-      </c>
-      <c r="K27" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>63040</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>63200</v>
-      </c>
-      <c r="K28" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>63450</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>63950</v>
-      </c>
-      <c r="K29" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1657,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1698,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1739,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1903,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1944,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1985,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2026,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2067,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2108,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2149,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2190,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2231,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2272,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2313,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2354,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2395,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2436,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2477,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2518,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2559,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2600,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2641,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2682,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2723,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2764,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2805,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2846,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2887,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2928,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2969,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3010,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3051,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3092,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3133,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3174,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3215,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3256,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3297,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3338,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3379,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3420,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3461,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3502,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3543,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3584,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3625,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3666,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3707,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3748,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3789,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3830,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3871,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3953,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3994,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4035,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4076,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4117,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4158,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4199,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4240,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4281,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4322,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4363,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4404,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4445,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4486,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4527,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4568,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4609,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4650,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4732,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4773,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4814,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4855,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4896,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4937,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4978,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5019,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5060,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5101,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5142,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5183,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5224,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5265,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5306,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5347,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5388,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5429,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5470,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5511,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5552,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5593,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5634,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5675,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5716,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5757,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5798,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5839,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5880,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5921,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5962,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6003,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6044,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6085,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6126,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6167,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6208,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6249,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6290,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6372,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6413,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6454,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6495,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6536,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6577,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6618,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6659,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6700,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6741,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6782,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6823,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6864,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6905,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6946,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6987,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7028,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7069,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7110,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7151,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7192,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7233,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7274,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7315,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7356,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7397,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7438,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7479,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7520,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7561,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7602,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7643,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7684,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7725,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7766,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7807,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7848,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7889,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7930,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7971,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8012,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8053,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8094,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8135,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8176,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8217,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8258,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8299,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8340,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8381,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8422,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8463,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8504,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8545,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8586,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8668,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8709,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8750,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8791,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8832,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8873,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8914,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8955,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8996,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9037,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9078,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9119,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9160,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9201,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9242,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9283,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9324,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9365,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9406,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9447,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9488,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9529,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9570,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9611,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9652,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9693,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9734,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9775,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9816,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9857,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9898,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9939,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9980,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10062,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10103,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10144,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10185,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10226,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10267,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10308,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10349,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10390,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10431,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10513,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10554,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10595,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10636,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10677,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10718,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10759,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10800,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10841,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10882,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10923,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10964,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -11005,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11046,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11087,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11128,14 +9522,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11169,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11210,14 +9592,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11251,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11292,14 +9662,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11333,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11374,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11415,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11456,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11497,14 +9837,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11538,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11579,14 +9907,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11620,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11661,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11702,14 +10012,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11743,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11784,14 +10082,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11825,14 +10117,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11866,14 +10152,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11907,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11948,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11989,14 +10257,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -12030,14 +10292,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -12071,14 +10327,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -12112,14 +10362,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -12153,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -12194,14 +10432,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -12235,14 +10467,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -12276,14 +10502,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -12317,14 +10537,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -12358,14 +10572,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12399,14 +10607,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12440,14 +10642,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12481,14 +10677,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12522,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12563,14 +10747,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12604,14 +10782,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12645,14 +10817,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12686,14 +10852,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12727,14 +10887,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12768,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12809,14 +10957,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12850,14 +10992,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12891,14 +11027,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12932,14 +11062,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12973,14 +11097,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -13014,14 +11132,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -13055,14 +11167,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -13096,14 +11202,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -13137,14 +11237,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -13178,14 +11272,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -13219,14 +11307,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -13260,14 +11342,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -13301,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -13342,14 +11412,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -13383,14 +11447,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -13424,14 +11482,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -13465,14 +11517,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -13506,14 +11552,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13547,14 +11587,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13588,14 +11622,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13629,14 +11657,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13670,14 +11692,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13711,14 +11727,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13752,14 +11762,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13793,14 +11797,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13834,14 +11832,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13875,14 +11867,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13916,14 +11902,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13957,14 +11937,8 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13998,14 +11972,8 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -14039,14 +12007,8 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -14080,14 +12042,8 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -14121,14 +12077,8 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -14162,14 +12112,8 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -14203,14 +12147,8 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -14244,14 +12182,8 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -14285,14 +12217,8 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -14326,14 +12252,8 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -14367,14 +12287,8 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -14408,14 +12322,8 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -14449,14 +12357,8 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -14490,14 +12392,8 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -14531,14 +12427,8 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -14572,14 +12462,8 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -14613,14 +12497,8 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -14654,14 +12532,8 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -14695,14 +12567,8 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14736,14 +12602,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14777,14 +12637,8 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14818,14 +12672,8 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14859,14 +12707,8 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14900,14 +12742,8 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14941,14 +12777,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14982,14 +12812,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -15023,16 +12847,10 @@
         <v>1</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>62300</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
-        <v>1.08970304975923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -17196,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
@@ -17231,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
@@ -28743,14 +26561,20 @@
         <v>64470</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>64350</v>
+      </c>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -28785,7 +26609,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -28813,14 +26641,20 @@
         <v>64410</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
       </c>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>64400</v>
+      </c>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -28848,14 +26682,20 @@
         <v>64420</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
       </c>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>64500</v>
+      </c>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -28883,14 +26723,20 @@
         <v>64410</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
       </c>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>64450</v>
+      </c>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -28918,14 +26764,20 @@
         <v>64450</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>0</v>
       </c>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>64300</v>
+      </c>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28953,14 +26805,20 @@
         <v>64460</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
       </c>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>64600</v>
+      </c>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28988,14 +26846,20 @@
         <v>64320</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
       </c>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>64450</v>
+      </c>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -29023,14 +26887,20 @@
         <v>64310</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>0</v>
       </c>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>63800</v>
+      </c>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -29058,14 +26928,20 @@
         <v>64400</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>0</v>
       </c>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>64400</v>
+      </c>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -29093,14 +26969,20 @@
         <v>64440</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
       </c>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>64750</v>
+      </c>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -29128,14 +27010,20 @@
         <v>64470</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
       </c>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>64800</v>
+      </c>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -29170,7 +27058,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -29205,7 +27097,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -29240,7 +27136,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -29275,7 +27175,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -29310,7 +27214,11 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -29345,7 +27253,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -29380,7 +27292,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -29415,7 +27331,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -29450,7 +27370,11 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -29485,7 +27409,11 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -29520,7 +27448,11 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -29555,7 +27487,11 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -29590,7 +27526,11 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -29625,7 +27565,11 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +27604,11 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -29695,7 +27643,11 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -29730,7 +27682,11 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -29765,7 +27721,11 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -29800,7 +27760,11 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -29835,7 +27799,11 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -29870,7 +27838,11 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -29905,7 +27877,11 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -29940,7 +27916,11 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -29975,7 +27955,11 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -30010,7 +27994,11 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -30045,7 +28033,11 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -30080,7 +28072,11 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -30115,7 +28111,11 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -30150,7 +28150,11 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -30185,7 +28189,11 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -30220,7 +28228,11 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -30255,7 +28267,11 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -30290,7 +28306,11 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -30325,7 +28345,11 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -30360,7 +28384,11 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -30395,7 +28423,11 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -30430,7 +28462,11 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -30465,7 +28501,11 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -30500,7 +28540,11 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -30535,7 +28579,11 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -30570,7 +28618,11 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -30605,7 +28657,11 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -30640,7 +28696,11 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -30675,7 +28735,11 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -30710,7 +28774,11 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -30745,7 +28813,11 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -30780,7 +28852,11 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +28891,11 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -30850,7 +28930,11 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -30885,7 +28969,11 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -30920,7 +29008,11 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -30955,7 +29047,11 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -30990,7 +29086,11 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -31025,7 +29125,11 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -31060,7 +29164,11 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -31095,7 +29203,11 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -31130,7 +29242,11 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -31165,7 +29281,11 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -31200,7 +29320,11 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -31235,7 +29359,11 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -31270,7 +29398,11 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -31305,7 +29437,11 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -31340,7 +29476,11 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -31375,7 +29515,11 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -31410,7 +29554,11 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -31445,7 +29593,11 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -31480,7 +29632,11 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -31515,7 +29671,11 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -31550,7 +29710,11 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -31585,7 +29749,11 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -31620,7 +29788,11 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -31655,7 +29827,11 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest LTC.xlsx
+++ b/BackTest/2019-10-26 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>409.4554895699999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>409.4554895699999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>60950</v>
@@ -521,7 +521,7 @@
         <v>458.5553258999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>60950</v>
@@ -562,7 +562,7 @@
         <v>461.7553258999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>61100</v>
@@ -603,7 +603,7 @@
         <v>465.9028258999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>61200</v>
@@ -640,7 +640,7 @@
         <v>484.3106258999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>61300</v>
@@ -681,7 +681,7 @@
         <v>560.0278258999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>61400</v>
@@ -722,7 +722,7 @@
         <v>617.7867259</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>61600</v>
@@ -759,7 +759,7 @@
         <v>592.1802259</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>61850</v>
@@ -800,7 +800,7 @@
         <v>677.5398259</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>61800</v>
@@ -841,7 +841,7 @@
         <v>666.7711259</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>61950</v>
@@ -882,7 +882,7 @@
         <v>666.7361259</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>61900</v>
@@ -923,7 +923,7 @@
         <v>687.4505259</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>61800</v>
@@ -964,9 +964,11 @@
         <v>687.2462259</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>61900</v>
+      </c>
       <c r="J15" t="n">
         <v>61600</v>
       </c>
@@ -1003,9 +1005,11 @@
         <v>670.4297259</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>61800</v>
+      </c>
       <c r="J16" t="n">
         <v>61600</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>670.4297259</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>61700</v>
@@ -1083,7 +1087,7 @@
         <v>670.4297259</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>61700</v>
@@ -1124,7 +1128,7 @@
         <v>853.0701259</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>61700</v>
@@ -1165,7 +1169,7 @@
         <v>1011.2998259</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>61800</v>
@@ -1206,7 +1210,7 @@
         <v>1286.6387259</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>62100</v>
@@ -1247,9 +1251,11 @@
         <v>657.0981743000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>62300</v>
+      </c>
       <c r="J22" t="n">
         <v>61600</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>656.4581743000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>62200</v>
@@ -1327,9 +1333,11 @@
         <v>652.1523743000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>62150</v>
+      </c>
       <c r="J24" t="n">
         <v>61600</v>
       </c>
@@ -1366,9 +1374,11 @@
         <v>729.0755743000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>62000</v>
+      </c>
       <c r="J25" t="n">
         <v>61600</v>
       </c>
@@ -1405,9 +1415,11 @@
         <v>729.0755743000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>62050</v>
+      </c>
       <c r="J26" t="n">
         <v>61600</v>
       </c>
@@ -1444,9 +1456,11 @@
         <v>724.8235743000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>62050</v>
+      </c>
       <c r="J27" t="n">
         <v>61600</v>
       </c>
@@ -1483,7 +1497,7 @@
         <v>787.0915743000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>61950</v>
@@ -1524,9 +1538,11 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>62000</v>
+      </c>
       <c r="J29" t="n">
         <v>61600</v>
       </c>
@@ -1563,9 +1579,11 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>61800</v>
+      </c>
       <c r="J30" t="n">
         <v>61600</v>
       </c>
@@ -1602,9 +1620,11 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>61800</v>
+      </c>
       <c r="J31" t="n">
         <v>61600</v>
       </c>
@@ -1641,9 +1661,11 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>61800</v>
+      </c>
       <c r="J32" t="n">
         <v>61600</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>61900</v>
@@ -1721,9 +1743,11 @@
         <v>754.0453743</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>61900</v>
+      </c>
       <c r="J34" t="n">
         <v>61600</v>
       </c>
@@ -1760,9 +1784,11 @@
         <v>796.7704743</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>62050</v>
+      </c>
       <c r="J35" t="n">
         <v>61600</v>
       </c>
@@ -1799,9 +1825,11 @@
         <v>794.0494743</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>62150</v>
+      </c>
       <c r="J36" t="n">
         <v>61600</v>
       </c>
@@ -1838,9 +1866,11 @@
         <v>794.0494743</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>62100</v>
+      </c>
       <c r="J37" t="n">
         <v>61600</v>
       </c>
@@ -1877,9 +1907,11 @@
         <v>761.0095743000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>62100</v>
+      </c>
       <c r="J38" t="n">
         <v>61600</v>
       </c>
@@ -1916,9 +1948,11 @@
         <v>761.0095743000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>61900</v>
+      </c>
       <c r="J39" t="n">
         <v>61600</v>
       </c>
@@ -1955,9 +1989,11 @@
         <v>719.4524743000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>61900</v>
+      </c>
       <c r="J40" t="n">
         <v>61600</v>
       </c>
@@ -1994,9 +2030,11 @@
         <v>719.7139743</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>61700</v>
+      </c>
       <c r="J41" t="n">
         <v>61600</v>
       </c>
@@ -2033,9 +2071,11 @@
         <v>647.6505743</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>61800</v>
+      </c>
       <c r="J42" t="n">
         <v>61600</v>
       </c>
@@ -2072,9 +2112,11 @@
         <v>650.5519743</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>61600</v>
+      </c>
       <c r="J43" t="n">
         <v>61600</v>
       </c>
@@ -2111,9 +2153,11 @@
         <v>719.5963743</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>61800</v>
+      </c>
       <c r="J44" t="n">
         <v>61600</v>
       </c>
@@ -2150,9 +2194,11 @@
         <v>722.1533743</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>61900</v>
+      </c>
       <c r="J45" t="n">
         <v>61600</v>
       </c>
@@ -2189,9 +2235,11 @@
         <v>722.1533743</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>62000</v>
+      </c>
       <c r="J46" t="n">
         <v>61600</v>
       </c>
@@ -2228,9 +2276,11 @@
         <v>796.1725743</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>62000</v>
+      </c>
       <c r="J47" t="n">
         <v>61600</v>
       </c>
@@ -2267,9 +2317,11 @@
         <v>899.6647743</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>62100</v>
+      </c>
       <c r="J48" t="n">
         <v>61600</v>
       </c>
@@ -2306,9 +2358,11 @@
         <v>867.0991743</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>62300</v>
+      </c>
       <c r="J49" t="n">
         <v>61600</v>
       </c>
@@ -2345,9 +2399,11 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>62200</v>
+      </c>
       <c r="J50" t="n">
         <v>61600</v>
       </c>
@@ -2384,9 +2440,11 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>62100</v>
+      </c>
       <c r="J51" t="n">
         <v>61600</v>
       </c>
@@ -2423,9 +2481,11 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>62100</v>
+      </c>
       <c r="J52" t="n">
         <v>61600</v>
       </c>
@@ -2462,9 +2522,11 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>62000</v>
+      </c>
       <c r="J53" t="n">
         <v>61600</v>
       </c>
@@ -2501,9 +2563,11 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>62000</v>
+      </c>
       <c r="J54" t="n">
         <v>61600</v>
       </c>
@@ -2540,9 +2604,11 @@
         <v>1081.1925743</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>62000</v>
+      </c>
       <c r="J55" t="n">
         <v>61600</v>
       </c>
@@ -2579,9 +2645,11 @@
         <v>1074.6084743</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>62050</v>
+      </c>
       <c r="J56" t="n">
         <v>61600</v>
       </c>
@@ -2618,9 +2686,11 @@
         <v>1077.6764743</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>62000</v>
+      </c>
       <c r="J57" t="n">
         <v>61600</v>
       </c>
@@ -2657,9 +2727,11 @@
         <v>1077.6764743</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>62100</v>
+      </c>
       <c r="J58" t="n">
         <v>61600</v>
       </c>
@@ -2696,9 +2768,11 @@
         <v>1090.9296743</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>62100</v>
+      </c>
       <c r="J59" t="n">
         <v>61600</v>
       </c>
@@ -2735,9 +2809,11 @@
         <v>1090.8915743</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>62200</v>
+      </c>
       <c r="J60" t="n">
         <v>61600</v>
       </c>
@@ -2774,9 +2850,11 @@
         <v>1197.8816743</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>62100</v>
+      </c>
       <c r="J61" t="n">
         <v>61600</v>
       </c>
@@ -2813,9 +2891,11 @@
         <v>1336.4495743</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>62300</v>
+      </c>
       <c r="J62" t="n">
         <v>61600</v>
       </c>
@@ -2852,9 +2932,11 @@
         <v>1336.4495743</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>62350</v>
+      </c>
       <c r="J63" t="n">
         <v>61600</v>
       </c>
@@ -2891,9 +2973,11 @@
         <v>1402.8343743</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>62350</v>
+      </c>
       <c r="J64" t="n">
         <v>61600</v>
       </c>
@@ -2930,9 +3014,11 @@
         <v>1402.8343743</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>62400</v>
+      </c>
       <c r="J65" t="n">
         <v>61600</v>
       </c>
@@ -2969,9 +3055,11 @@
         <v>1402.8343743</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>62400</v>
+      </c>
       <c r="J66" t="n">
         <v>61600</v>
       </c>
@@ -3008,9 +3096,11 @@
         <v>1398.2518743</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>62400</v>
+      </c>
       <c r="J67" t="n">
         <v>61600</v>
       </c>
@@ -3047,9 +3137,11 @@
         <v>1398.2518743</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>62250</v>
+      </c>
       <c r="J68" t="n">
         <v>61600</v>
       </c>
@@ -3086,9 +3178,11 @@
         <v>1398.2518743</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>62250</v>
+      </c>
       <c r="J69" t="n">
         <v>61600</v>
       </c>
@@ -3164,9 +3258,11 @@
         <v>1438.0959743</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>62300</v>
+      </c>
       <c r="J71" t="n">
         <v>61600</v>
       </c>
@@ -3203,9 +3299,11 @@
         <v>1589.5234743</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>62350</v>
+      </c>
       <c r="J72" t="n">
         <v>61600</v>
       </c>
@@ -3281,9 +3379,11 @@
         <v>1467.2696743</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>62650</v>
+      </c>
       <c r="J74" t="n">
         <v>61600</v>
       </c>
@@ -3398,9 +3498,11 @@
         <v>1455.6368743</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>62400</v>
+      </c>
       <c r="J77" t="n">
         <v>61600</v>
       </c>
@@ -3437,9 +3539,11 @@
         <v>1455.6368743</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>62350</v>
+      </c>
       <c r="J78" t="n">
         <v>61600</v>
       </c>
@@ -3476,9 +3580,11 @@
         <v>1456.6368743</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>62350</v>
+      </c>
       <c r="J79" t="n">
         <v>61600</v>
       </c>
@@ -3515,9 +3621,11 @@
         <v>1451.7316743</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>62450</v>
+      </c>
       <c r="J80" t="n">
         <v>61600</v>
       </c>
@@ -3554,9 +3662,11 @@
         <v>1561.4311743</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>62300</v>
+      </c>
       <c r="J81" t="n">
         <v>61600</v>
       </c>
@@ -3593,9 +3703,11 @@
         <v>1560.4311743</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>62400</v>
+      </c>
       <c r="J82" t="n">
         <v>61600</v>
       </c>
@@ -3632,9 +3744,11 @@
         <v>1655.0176743</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>62300</v>
+      </c>
       <c r="J83" t="n">
         <v>61600</v>
       </c>
@@ -3671,9 +3785,11 @@
         <v>1690.3709743</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>62500</v>
+      </c>
       <c r="J84" t="n">
         <v>61600</v>
       </c>
@@ -3710,9 +3826,11 @@
         <v>1670.0448743</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>62750</v>
+      </c>
       <c r="J85" t="n">
         <v>61600</v>
       </c>
@@ -3749,9 +3867,11 @@
         <v>1872.1482743</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>62650</v>
+      </c>
       <c r="J86" t="n">
         <v>61600</v>
       </c>
@@ -3788,9 +3908,11 @@
         <v>2468.6536743</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>63300</v>
+      </c>
       <c r="J87" t="n">
         <v>61600</v>
       </c>
@@ -6713,7 +6835,7 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
@@ -6721,15 +6843,13 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.084285714285714</v>
-      </c>
-      <c r="M162" t="n">
-        <v>1.017227235438884</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6754,11 +6874,17 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6913,17 @@
         <v>3589.986871250001</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6952,17 @@
         <v>3651.399071250001</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6991,17 @@
         <v>4376.776471250001</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7033,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7069,17 @@
         <v>4137.475597450001</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7111,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7150,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7189,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7228,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7267,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7306,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7345,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7384,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7423,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7462,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7501,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7579,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7618,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7657,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7696,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7735,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7774,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7813,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7852,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +7891,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7930,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +7969,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8008,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8047,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8086,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8125,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8164,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8203,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8242,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8281,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8320,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +8359,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8398,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8437,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8476,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8515,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8554,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8593,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8632,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8671,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8710,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8749,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8788,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8827,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8866,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8905,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8944,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8983,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +9022,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +9061,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9100,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9139,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9178,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9217,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9256,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9295,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9334,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9373,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9412,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9451,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +9490,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +9529,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9568,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9607,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +9646,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +9685,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +9724,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +9763,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +9802,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +9841,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +9880,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9916,17 @@
         <v>3421.80547283</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9955,17 @@
         <v>3261.84017283</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +9997,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +10036,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +10075,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +10114,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +10153,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +10192,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +10231,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +10270,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +10309,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +10348,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +10387,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10426,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10465,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10504,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +10543,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10582,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10621,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10660,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10699,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10738,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10777,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10816,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10852,17 @@
         <v>3238.38183152</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10894,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10933,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10972,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +11008,17 @@
         <v>3299.67483152</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +11050,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +11089,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +11125,17 @@
         <v>3360.25443152</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +11164,17 @@
         <v>3360.25443152</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +11206,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +11245,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +11284,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +11323,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +11362,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +11401,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +11440,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +11479,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11518,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +11557,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +11596,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +11635,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +11674,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11713,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11752,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11791,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11830,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11869,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11908,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +11947,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11986,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +12025,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +12064,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +12103,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +12142,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +12181,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +12220,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +12259,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +12298,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +12337,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +12376,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +12415,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +12454,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11509,8 +12493,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +12532,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +12571,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +12610,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +12649,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +12688,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +12727,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +12763,17 @@
         <v>3370.278331520001</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +12805,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +12844,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +12883,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12922,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12961,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +13000,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +13039,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +13078,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +13117,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +13156,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +13195,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +13234,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +13273,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +13312,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +13351,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +13390,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +13429,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +13468,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +13507,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +13546,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12433,8 +13585,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +13624,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +13663,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +13702,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +13741,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +13780,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +13819,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +13858,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +13897,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +13936,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +13975,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12796,8 +14014,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +14053,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +14092,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +14131,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +14170,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +14209,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +14248,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +14287,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +14326,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +14365,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +14404,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +14443,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +14482,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +14521,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +14560,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +14599,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +14638,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +14677,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +14716,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13423,8 +14755,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13456,8 +14794,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13489,8 +14833,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13522,8 +14872,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13555,8 +14911,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13588,8 +14950,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13621,8 +14989,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13654,8 +15028,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13687,8 +15067,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13720,8 +15106,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13753,8 +15145,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13786,8 +15184,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13819,8 +15223,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13852,8 +15262,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13885,8 +15301,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13918,8 +15340,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13951,8 +15379,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13984,8 +15418,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +15454,17 @@
         <v>3808.03283302</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14050,8 +15496,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +15532,17 @@
         <v>3804.012433020001</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +15571,17 @@
         <v>3804.012433020001</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +15610,17 @@
         <v>3789.41343302</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14182,8 +15652,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14215,8 +15691,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14248,8 +15730,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14281,8 +15769,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14314,8 +15808,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14347,8 +15847,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14380,8 +15886,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14413,8 +15925,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14446,8 +15964,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +16000,17 @@
         <v>3812.84502433</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +16039,17 @@
         <v>3812.84502433</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +16078,17 @@
         <v>3836.58977769</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +16117,17 @@
         <v>3836.58977769</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +16156,17 @@
         <v>3830.10157769</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +16195,17 @@
         <v>3890.27807769</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +16234,17 @@
         <v>3962.025477690001</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +16273,17 @@
         <v>4283.17617769</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +16312,17 @@
         <v>4538.07707769</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +16351,17 @@
         <v>5175.21387769</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +16390,17 @@
         <v>5184.50987769</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +16429,17 @@
         <v>5140.359377690001</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +16468,17 @@
         <v>5219.435977690001</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +16507,17 @@
         <v>5007.579377690001</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +16546,17 @@
         <v>5435.253477690001</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +16585,17 @@
         <v>5784.476977690001</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +16624,17 @@
         <v>4673.066877690001</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +16663,17 @@
         <v>4295.959177690002</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +16702,17 @@
         <v>4295.959177690002</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +16741,17 @@
         <v>4405.110777690002</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +16780,17 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +16819,17 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +16858,17 @@
         <v>4559.471642650002</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +16897,17 @@
         <v>4410.708242650002</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +16936,17 @@
         <v>4172.144642650002</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +16975,17 @@
         <v>4126.404842650001</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15337,8 +17017,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15370,8 +17056,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15403,8 +17095,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15436,8 +17134,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15469,8 +17173,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15502,8 +17212,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15535,8 +17251,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15568,8 +17290,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15601,8 +17329,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15634,8 +17368,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15667,8 +17407,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15700,8 +17446,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15733,8 +17485,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15766,8 +17524,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15799,8 +17563,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15832,8 +17602,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15865,8 +17641,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15898,8 +17680,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15931,8 +17719,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15964,8 +17758,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15997,8 +17797,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16030,8 +17836,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16063,8 +17875,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16096,8 +17914,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16129,8 +17953,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16162,8 +17992,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16195,8 +18031,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16228,8 +18070,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16261,8 +18109,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16294,8 +18148,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16327,8 +18187,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16360,8 +18226,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16393,8 +18265,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16426,8 +18304,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16459,8 +18343,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +18379,17 @@
         <v>4848.842042650002</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +18418,17 @@
         <v>4756.259942650003</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +18457,17 @@
         <v>4803.492542650003</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16588,11 +18496,17 @@
         <v>4803.492542650003</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16621,11 +18535,17 @@
         <v>5142.681742650003</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +18574,17 @@
         <v>5075.559542650003</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16690,8 +18616,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16723,8 +18655,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16756,8 +18694,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16789,8 +18733,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16822,8 +18772,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16855,8 +18811,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16888,8 +18850,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16921,8 +18889,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16954,8 +18928,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16987,8 +18967,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17020,8 +19006,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +19042,17 @@
         <v>7685.551649360003</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +19081,17 @@
         <v>7124.846332330004</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17116,15 +19120,23 @@
         <v>6834.473932890004</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
+        <v>1.152467532467533</v>
+      </c>
+      <c r="M477" t="n">
+        <v>1.017227235438884</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -17149,7 +19161,7 @@
         <v>6679.703032890004</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17182,7 +19194,7 @@
         <v>6240.467332890003</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17215,7 +19227,7 @@
         <v>5848.139532890003</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17248,7 +19260,7 @@
         <v>6206.700926820004</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17281,7 +19293,7 @@
         <v>6331.656926820004</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17314,7 +19326,7 @@
         <v>6481.229226820004</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17347,7 +19359,7 @@
         <v>6237.414626820004</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17380,7 +19392,7 @@
         <v>6539.457126820003</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17413,7 +19425,7 @@
         <v>6976.083026820003</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17446,7 +19458,7 @@
         <v>6759.631595600003</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17479,7 +19491,7 @@
         <v>6736.736095600004</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17512,7 +19524,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17545,7 +19557,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17578,7 +19590,7 @@
         <v>7036.398395600004</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17611,7 +19623,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17644,7 +19656,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17677,7 +19689,7 @@
         <v>7080.691395600004</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17710,7 +19722,7 @@
         <v>6959.672395600004</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17743,7 +19755,7 @@
         <v>6819.851695600004</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17776,7 +19788,7 @@
         <v>6686.082095600004</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17809,7 +19821,7 @@
         <v>6529.383995600005</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17842,7 +19854,7 @@
         <v>6843.295795600005</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17875,7 +19887,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17908,7 +19920,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17941,7 +19953,7 @@
         <v>6134.219570280005</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17974,7 +19986,7 @@
         <v>6868.871070280004</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18007,7 +20019,7 @@
         <v>6779.591570280005</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18040,7 +20052,7 @@
         <v>6994.138270280005</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18073,7 +20085,7 @@
         <v>7058.538270280004</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18106,7 +20118,7 @@
         <v>6780.321070280004</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18139,7 +20151,7 @@
         <v>6808.501763070004</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18205,7 +20217,7 @@
         <v>6642.713063070004</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18238,7 +20250,7 @@
         <v>6709.464663070004</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18271,7 +20283,7 @@
         <v>6652.434763070003</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18304,7 +20316,7 @@
         <v>6676.811663070003</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18337,7 +20349,7 @@
         <v>6634.811663070003</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18370,7 +20382,7 @@
         <v>6584.660463070003</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18403,7 +20415,7 @@
         <v>6564.946163070003</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18436,7 +20448,7 @@
         <v>6316.615463070003</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18469,7 +20481,7 @@
         <v>6387.721863070003</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18502,7 +20514,7 @@
         <v>6388.071863070003</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18535,7 +20547,7 @@
         <v>6372.453663070003</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18568,7 +20580,7 @@
         <v>6377.391663070003</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18601,7 +20613,7 @@
         <v>6356.436963070003</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18634,7 +20646,7 @@
         <v>6356.436963070003</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18667,7 +20679,7 @@
         <v>6357.419815590003</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18700,7 +20712,7 @@
         <v>6384.362515590003</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18733,7 +20745,7 @@
         <v>6337.887915590003</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18766,7 +20778,7 @@
         <v>6337.887915590003</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18799,7 +20811,7 @@
         <v>6332.595615590003</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18832,7 +20844,7 @@
         <v>6196.064515590003</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18865,7 +20877,7 @@
         <v>6157.888289340003</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18898,7 +20910,7 @@
         <v>5792.498989340003</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18931,7 +20943,7 @@
         <v>5711.322689340003</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18964,7 +20976,7 @@
         <v>5552.096964750003</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18997,7 +21009,7 @@
         <v>5711.643664750003</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19030,7 +21042,7 @@
         <v>5662.679764750003</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19063,7 +21075,7 @@
         <v>5661.918864750003</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19096,7 +21108,7 @@
         <v>5587.605164750003</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19129,7 +21141,7 @@
         <v>5587.753064750003</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19162,7 +21174,7 @@
         <v>5572.753164750004</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19195,7 +21207,7 @@
         <v>5536.383064750004</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19228,7 +21240,7 @@
         <v>5536.383064750004</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19261,7 +21273,7 @@
         <v>5555.085064750004</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19294,7 +21306,7 @@
         <v>5532.131072130004</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19327,7 +21339,7 @@
         <v>5420.571572130004</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19360,7 +21372,7 @@
         <v>5368.889072130004</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19393,7 +21405,7 @@
         <v>5411.914872130004</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19426,7 +21438,7 @@
         <v>5411.914872130004</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19459,7 +21471,7 @@
         <v>5411.914872130004</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19492,7 +21504,7 @@
         <v>5407.108931940004</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19525,7 +21537,7 @@
         <v>5381.460131940004</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19558,7 +21570,7 @@
         <v>5316.525231940004</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19591,7 +21603,7 @@
         <v>5607.216531940005</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19624,7 +21636,7 @@
         <v>5631.832831940004</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19657,7 +21669,7 @@
         <v>5569.261931940005</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19690,7 +21702,7 @@
         <v>5569.261931940005</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19723,7 +21735,7 @@
         <v>5569.261931940005</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19756,7 +21768,7 @@
         <v>5569.261931940005</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21802,7 +23814,7 @@
         <v>5248.907579620004</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21868,7 +23880,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21901,7 +23913,7 @@
         <v>5282.764979620005</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21934,7 +23946,7 @@
         <v>5291.986179620005</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21967,7 +23979,7 @@
         <v>5284.437079620005</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22000,7 +24012,7 @@
         <v>5284.371579620005</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22033,7 +24045,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22066,7 +24078,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22099,7 +24111,7 @@
         <v>5285.737379620005</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22132,7 +24144,7 @@
         <v>5285.737379620005</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22165,7 +24177,7 @@
         <v>5300.496179620004</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22198,7 +24210,7 @@
         <v>5291.804879620004</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22231,7 +24243,7 @@
         <v>5086.849779620004</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22264,7 +24276,7 @@
         <v>5096.461879620004</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22297,7 +24309,7 @@
         <v>5096.461879620004</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22330,7 +24342,7 @@
         <v>5093.456079620004</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22363,7 +24375,7 @@
         <v>5093.456079620004</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22396,7 +24408,7 @@
         <v>5094.784479620004</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22429,7 +24441,7 @@
         <v>5094.784479620004</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22462,7 +24474,7 @@
         <v>4784.113379620005</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22495,7 +24507,7 @@
         <v>4788.676179620004</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22528,7 +24540,7 @@
         <v>4788.676179620004</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22561,7 +24573,7 @@
         <v>4885.756679620004</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22594,7 +24606,7 @@
         <v>4927.814779620005</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22627,7 +24639,7 @@
         <v>4953.126979620005</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22660,7 +24672,7 @@
         <v>5041.206379620005</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22693,7 +24705,7 @@
         <v>5035.054779620004</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22726,7 +24738,7 @@
         <v>5054.871379620005</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22759,7 +24771,7 @@
         <v>5054.820379620004</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22792,7 +24804,7 @@
         <v>5063.733079620004</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22825,7 +24837,7 @@
         <v>5066.993179620004</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22858,7 +24870,7 @@
         <v>5142.860979620004</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22891,7 +24903,7 @@
         <v>5149.150779620004</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22924,7 +24936,7 @@
         <v>5651.040679620004</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22957,7 +24969,7 @@
         <v>5570.289479620004</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22990,7 +25002,7 @@
         <v>5547.457379620005</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23023,7 +25035,7 @@
         <v>5496.945079620004</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23056,7 +25068,7 @@
         <v>5448.041179620004</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23089,7 +25101,7 @@
         <v>5302.448379620004</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23122,7 +25134,7 @@
         <v>5295.659379620004</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23155,7 +25167,7 @@
         <v>5311.435279620004</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23188,7 +25200,7 @@
         <v>5310.043379620004</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23221,7 +25233,7 @@
         <v>5274.722279620004</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23386,7 +25398,7 @@
         <v>5080.939779620004</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23419,7 +25431,7 @@
         <v>5072.729679620003</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23452,7 +25464,7 @@
         <v>5072.729679620003</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25036,7 +27048,7 @@
         <v>4943.014847800003</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25069,7 +27081,7 @@
         <v>4928.747447800003</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25102,7 +27114,7 @@
         <v>4908.122547800003</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25135,7 +27147,7 @@
         <v>4819.694347800003</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25168,7 +27180,7 @@
         <v>4819.694347800003</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25201,7 +27213,7 @@
         <v>4748.118347800003</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -29227,7 +31239,7 @@
         <v>4835.871250210003</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29260,7 +31272,7 @@
         <v>4828.514550210003</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29326,7 +31338,7 @@
         <v>4818.181950210003</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29359,7 +31371,7 @@
         <v>4825.933150210003</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29392,7 +31404,7 @@
         <v>4825.883150210003</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29656,7 +31668,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29689,7 +31701,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H858" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29722,7 +31734,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H859" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29755,7 +31767,7 @@
         <v>4859.263050210003</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29788,7 +31800,7 @@
         <v>4807.590450210003</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29821,7 +31833,7 @@
         <v>4780.844350210003</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29854,7 +31866,7 @@
         <v>4780.844350210003</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29887,7 +31899,7 @@
         <v>4764.190050210002</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29920,7 +31932,7 @@
         <v>4779.219150210002</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29953,7 +31965,7 @@
         <v>4779.219150210002</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29986,7 +31998,7 @@
         <v>4772.282650210002</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30019,7 +32031,7 @@
         <v>4772.282650210002</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30052,7 +32064,7 @@
         <v>4772.282650210002</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30085,7 +32097,7 @@
         <v>4771.601750210002</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30151,7 +32163,7 @@
         <v>4787.719350210002</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30184,7 +32196,7 @@
         <v>4787.719350210002</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30250,7 +32262,7 @@
         <v>4769.038850210001</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30283,7 +32295,7 @@
         <v>4769.038850210001</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30316,7 +32328,7 @@
         <v>4772.301450210001</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30349,7 +32361,7 @@
         <v>4772.301450210001</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30382,7 +32394,7 @@
         <v>4762.301450210001</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30415,7 +32427,7 @@
         <v>4762.301450210001</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30448,7 +32460,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30481,7 +32493,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30514,7 +32526,7 @@
         <v>4778.003450210002</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30547,7 +32559,7 @@
         <v>4778.003450210002</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30580,7 +32592,7 @@
         <v>4778.103450210002</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30613,7 +32625,7 @@
         <v>4775.642450210002</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30646,7 +32658,7 @@
         <v>4801.209350210002</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30679,7 +32691,7 @@
         <v>4769.691450210002</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30712,7 +32724,7 @@
         <v>4763.214950210002</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30745,7 +32757,7 @@
         <v>4778.385850210002</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30778,7 +32790,7 @@
         <v>4715.984050210002</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30811,7 +32823,7 @@
         <v>4715.984050210002</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30844,7 +32856,7 @@
         <v>4706.154350210002</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30877,7 +32889,7 @@
         <v>4706.154350210002</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30910,7 +32922,7 @@
         <v>4706.154350210002</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31086,6 +33098,6 @@
       <c r="M900" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LTC.xlsx
+++ b/BackTest/2019-10-26 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -841,183 +841,149 @@
         <v>666.7711259</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>61950</v>
-      </c>
-      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>61800</v>
+      </c>
+      <c r="C13" t="n">
+        <v>61800</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61800</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G13" t="n">
+        <v>666.7361259</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>61850</v>
+      </c>
+      <c r="C14" t="n">
+        <v>61900</v>
+      </c>
+      <c r="D14" t="n">
+        <v>61900</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61800</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.7144</v>
+      </c>
+      <c r="G14" t="n">
+        <v>687.4505259</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>61800</v>
+      </c>
+      <c r="C15" t="n">
+        <v>61800</v>
+      </c>
+      <c r="D15" t="n">
+        <v>61800</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61800</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2043</v>
+      </c>
+      <c r="G15" t="n">
+        <v>687.2462259</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>61750</v>
+      </c>
+      <c r="C16" t="n">
+        <v>61700</v>
+      </c>
+      <c r="D16" t="n">
+        <v>61750</v>
+      </c>
+      <c r="E16" t="n">
         <v>61600</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="F16" t="n">
+        <v>16.8165</v>
+      </c>
+      <c r="G16" t="n">
+        <v>670.4297259</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>61800</v>
-      </c>
-      <c r="C13" t="n">
-        <v>61800</v>
-      </c>
-      <c r="D13" t="n">
-        <v>61800</v>
-      </c>
-      <c r="E13" t="n">
-        <v>61800</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="G13" t="n">
-        <v>666.7361259</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J13" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>61850</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61900</v>
-      </c>
-      <c r="D14" t="n">
-        <v>61900</v>
-      </c>
-      <c r="E14" t="n">
-        <v>61800</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20.7144</v>
-      </c>
-      <c r="G14" t="n">
-        <v>687.4505259</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J14" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>61800</v>
-      </c>
-      <c r="C15" t="n">
-        <v>61800</v>
-      </c>
-      <c r="D15" t="n">
-        <v>61800</v>
-      </c>
-      <c r="E15" t="n">
-        <v>61800</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2043</v>
-      </c>
-      <c r="G15" t="n">
-        <v>687.2462259</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J15" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>61750</v>
-      </c>
-      <c r="C16" t="n">
-        <v>61700</v>
-      </c>
-      <c r="D16" t="n">
-        <v>61750</v>
-      </c>
-      <c r="E16" t="n">
-        <v>61600</v>
-      </c>
-      <c r="F16" t="n">
-        <v>16.8165</v>
-      </c>
-      <c r="G16" t="n">
-        <v>670.4297259</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J16" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1051,9 +1017,7 @@
       <c r="I17" t="n">
         <v>61700</v>
       </c>
-      <c r="J17" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1092,9 +1056,7 @@
       <c r="I18" t="n">
         <v>61700</v>
       </c>
-      <c r="J18" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1133,9 +1095,7 @@
       <c r="I19" t="n">
         <v>61700</v>
       </c>
-      <c r="J19" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1169,14 +1129,10 @@
         <v>1011.2998259</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J20" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1210,14 +1166,10 @@
         <v>1286.6387259</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J21" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1251,14 +1203,10 @@
         <v>657.0981743000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J22" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1292,14 +1240,10 @@
         <v>656.4581743000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J23" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1333,14 +1277,10 @@
         <v>652.1523743000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>62150</v>
-      </c>
-      <c r="J24" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1374,14 +1314,10 @@
         <v>729.0755743000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J25" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1415,14 +1351,10 @@
         <v>729.0755743000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>62050</v>
-      </c>
-      <c r="J26" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1456,14 +1388,10 @@
         <v>724.8235743000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>62050</v>
-      </c>
-      <c r="J27" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1497,14 +1425,10 @@
         <v>787.0915743000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>61950</v>
-      </c>
-      <c r="J28" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1538,14 +1462,10 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J29" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1579,14 +1499,10 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J30" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1620,14 +1536,10 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J31" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1661,14 +1573,10 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J32" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1702,14 +1610,10 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J33" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1743,14 +1647,10 @@
         <v>754.0453743</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J34" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1784,14 +1684,10 @@
         <v>796.7704743</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>62050</v>
-      </c>
-      <c r="J35" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,14 +1721,10 @@
         <v>794.0494743</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>62150</v>
-      </c>
-      <c r="J36" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1866,14 +1758,10 @@
         <v>794.0494743</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1907,14 +1795,10 @@
         <v>761.0095743000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J38" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,14 +1832,10 @@
         <v>761.0095743000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J39" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1989,14 +1869,10 @@
         <v>719.4524743000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J40" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,14 +1906,10 @@
         <v>719.7139743</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>61700</v>
-      </c>
-      <c r="J41" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2071,14 +1943,10 @@
         <v>647.6505743</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J42" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2112,14 +1980,10 @@
         <v>650.5519743</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>61600</v>
-      </c>
-      <c r="J43" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2153,14 +2017,10 @@
         <v>719.5963743</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>61800</v>
-      </c>
-      <c r="J44" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2194,14 +2054,10 @@
         <v>722.1533743</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>61900</v>
-      </c>
-      <c r="J45" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2235,14 +2091,10 @@
         <v>722.1533743</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J46" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,14 +2128,10 @@
         <v>796.1725743</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,14 +2165,10 @@
         <v>899.6647743</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J48" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,14 +2202,10 @@
         <v>867.0991743</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J49" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2399,14 +2239,10 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J50" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,14 +2276,10 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J51" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2481,14 +2313,10 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J52" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,14 +2350,10 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J53" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,14 +2387,10 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J54" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,14 +2424,10 @@
         <v>1081.1925743</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J55" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,14 +2461,10 @@
         <v>1074.6084743</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>62050</v>
-      </c>
-      <c r="J56" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,14 +2498,10 @@
         <v>1077.6764743</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>62000</v>
-      </c>
-      <c r="J57" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,14 +2535,10 @@
         <v>1077.6764743</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J58" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,14 +2572,10 @@
         <v>1090.9296743</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,14 +2609,10 @@
         <v>1090.8915743</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>62200</v>
-      </c>
-      <c r="J60" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,14 +2646,10 @@
         <v>1197.8816743</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>62100</v>
-      </c>
-      <c r="J61" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2891,14 +2683,10 @@
         <v>1336.4495743</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J62" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,14 +2720,10 @@
         <v>1336.4495743</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J63" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,14 +2757,10 @@
         <v>1402.8343743</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J64" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,14 +2794,10 @@
         <v>1402.8343743</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J65" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,14 +2831,10 @@
         <v>1402.8343743</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J66" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3096,14 +2868,10 @@
         <v>1398.2518743</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J67" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3137,14 +2905,10 @@
         <v>1398.2518743</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>62250</v>
-      </c>
-      <c r="J68" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,14 +2942,10 @@
         <v>1398.2518743</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>62250</v>
-      </c>
-      <c r="J69" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3222,9 +2982,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,14 +3016,10 @@
         <v>1438.0959743</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J71" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3299,14 +3053,10 @@
         <v>1589.5234743</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J72" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,9 +3093,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3379,14 +3127,10 @@
         <v>1467.2696743</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>62650</v>
-      </c>
-      <c r="J74" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3423,9 +3167,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,9 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,14 +3238,10 @@
         <v>1455.6368743</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J77" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,14 +3275,10 @@
         <v>1455.6368743</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J78" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,14 +3312,10 @@
         <v>1456.6368743</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>62350</v>
-      </c>
-      <c r="J79" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3621,14 +3349,10 @@
         <v>1451.7316743</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>62450</v>
-      </c>
-      <c r="J80" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,14 +3386,10 @@
         <v>1561.4311743</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J81" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3703,14 +3423,10 @@
         <v>1560.4311743</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>62400</v>
-      </c>
-      <c r="J82" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,14 +3460,10 @@
         <v>1655.0176743</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>62300</v>
-      </c>
-      <c r="J83" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3785,14 +3497,10 @@
         <v>1690.3709743</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>62500</v>
-      </c>
-      <c r="J84" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,14 +3534,10 @@
         <v>1670.0448743</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>62750</v>
-      </c>
-      <c r="J85" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3867,14 +3571,10 @@
         <v>1872.1482743</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>62650</v>
-      </c>
-      <c r="J86" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,14 +3608,10 @@
         <v>2468.6536743</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>63300</v>
-      </c>
-      <c r="J87" t="n">
-        <v>61600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,9 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3991,9 +3685,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,20 +3719,16 @@
         <v>2607.9763743</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>61600</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -4066,17 +3754,11 @@
         <v>4133.0873743</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4105,17 +3787,11 @@
         <v>3790.8735743</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4144,17 +3820,11 @@
         <v>3235.4375743</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4183,17 +3853,11 @@
         <v>3475.5708743</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4222,17 +3886,11 @@
         <v>2933.0077743</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4261,17 +3919,11 @@
         <v>2517.8485743</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4303,14 +3955,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4342,14 +3988,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4378,17 +4018,11 @@
         <v>2654.8389743</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4417,17 +4051,11 @@
         <v>2838.1350743</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4459,14 +4087,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4495,17 +4117,11 @@
         <v>3050.4854743</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4537,14 +4153,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4576,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4615,14 +4219,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4654,14 +4252,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4693,14 +4285,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4732,14 +4318,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4771,14 +4351,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4810,14 +4384,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4849,14 +4417,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4885,17 +4447,11 @@
         <v>3400.189974299999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4924,17 +4480,11 @@
         <v>3396.3874743</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4963,17 +4513,11 @@
         <v>3403.8300743</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5002,17 +4546,11 @@
         <v>3404.6495743</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5041,17 +4579,11 @@
         <v>3439.4439743</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5080,17 +4612,11 @@
         <v>3704.6191743</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5119,17 +4645,11 @@
         <v>3276.16123315</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5158,17 +4678,11 @@
         <v>3499.28274534</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5197,17 +4711,11 @@
         <v>3078.80899583</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5236,17 +4744,11 @@
         <v>2923.85449583</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5275,17 +4777,11 @@
         <v>2854.68299583</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5314,17 +4810,11 @@
         <v>2757.59599583</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5353,17 +4843,11 @@
         <v>2805.50709583</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5392,17 +4876,11 @@
         <v>2857.51859583</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5431,17 +4909,11 @@
         <v>2801.42259583</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5470,17 +4942,11 @@
         <v>2850.56839583</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5509,17 +4975,11 @@
         <v>2850.36839583</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5548,17 +5008,11 @@
         <v>2850.36839583</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5587,17 +5041,11 @@
         <v>2955.43029583</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5626,17 +5074,11 @@
         <v>2944.904295830001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5665,17 +5107,11 @@
         <v>2945.004295830001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5704,17 +5140,11 @@
         <v>2961.82029583</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5743,17 +5173,11 @@
         <v>2982.75649583</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5782,17 +5206,11 @@
         <v>2971.75649583</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5824,14 +5242,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5863,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5902,14 +5308,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5941,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5980,14 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6019,14 +5407,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6055,17 +5437,11 @@
         <v>3409.889795830001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6094,17 +5470,11 @@
         <v>3403.124095830001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6133,17 +5503,11 @@
         <v>3414.595295830001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6172,17 +5536,11 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6211,17 +5569,11 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6250,17 +5602,11 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6289,17 +5635,11 @@
         <v>3351.770071250001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6328,17 +5668,11 @@
         <v>3403.037071250001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6367,17 +5701,11 @@
         <v>3382.989771250001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6406,17 +5734,11 @@
         <v>3382.989771250001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6445,17 +5767,11 @@
         <v>3374.04317125</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6484,17 +5800,11 @@
         <v>3374.04317125</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6523,17 +5833,11 @@
         <v>3412.52587125</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6562,17 +5866,11 @@
         <v>3412.802271250001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6601,17 +5899,11 @@
         <v>3290.373971250001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6640,17 +5932,11 @@
         <v>3290.44627125</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6679,17 +5965,11 @@
         <v>3452.856671250001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6718,17 +5998,11 @@
         <v>3513.856671250001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6757,17 +6031,11 @@
         <v>3696.88857125</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6796,17 +6064,11 @@
         <v>3736.75817125</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6835,17 +6097,11 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6874,17 +6130,11 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6913,17 +6163,11 @@
         <v>3589.986871250001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6952,17 +6196,11 @@
         <v>3651.399071250001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6991,17 +6229,11 @@
         <v>4376.776471250001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7030,17 +6262,11 @@
         <v>4263.304097450001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7069,17 +6295,11 @@
         <v>4137.475597450001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7108,17 +6328,11 @@
         <v>4745.994181760001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7147,17 +6361,11 @@
         <v>4597.632781760001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7186,17 +6394,11 @@
         <v>4468.449359380002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7225,17 +6427,11 @@
         <v>4385.066559380001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7264,17 +6460,11 @@
         <v>4401.704459380001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7303,17 +6493,11 @@
         <v>4639.177559380001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7342,17 +6526,11 @@
         <v>4803.767259380002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7381,17 +6559,11 @@
         <v>4740.820230380002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7420,17 +6592,11 @@
         <v>4644.201730380002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7459,17 +6625,11 @@
         <v>4072.055330380002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7498,17 +6658,11 @@
         <v>3821.564230380002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7537,17 +6691,11 @@
         <v>3821.564230380002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7576,17 +6724,11 @@
         <v>3821.814230380002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7615,17 +6757,11 @@
         <v>3889.401130380002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7654,17 +6790,11 @@
         <v>3885.135430380002</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7693,17 +6823,11 @@
         <v>3848.802030380002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7732,17 +6856,11 @@
         <v>3848.802030380002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7771,17 +6889,11 @@
         <v>3756.981130380002</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7813,14 +6925,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7852,14 +6958,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7891,14 +6991,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7930,14 +7024,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7969,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8008,14 +7090,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8047,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8086,14 +7156,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8125,14 +7189,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8164,14 +7222,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8200,17 +7252,11 @@
         <v>3653.531413180001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8239,17 +7285,11 @@
         <v>3611.163213180002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8278,17 +7318,11 @@
         <v>3610.059913180001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8320,14 +7354,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8359,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8398,14 +7420,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8437,14 +7453,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8476,14 +7486,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8515,14 +7519,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8554,14 +7552,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8593,14 +7585,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8632,14 +7618,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8671,14 +7651,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8710,14 +7684,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8749,14 +7717,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8788,14 +7750,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8827,14 +7783,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8866,14 +7816,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8905,14 +7849,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8944,14 +7882,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8983,14 +7915,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9022,14 +7948,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9061,14 +7981,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9100,14 +8014,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9139,14 +8047,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9178,14 +8080,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9217,14 +8113,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9256,14 +8146,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9295,14 +8179,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9334,14 +8212,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9373,14 +8245,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9412,14 +8278,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9451,14 +8311,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9490,14 +8344,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9529,14 +8377,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9568,14 +8410,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9607,14 +8443,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9646,14 +8476,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9685,14 +8509,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9724,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9763,14 +8575,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9802,14 +8608,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9841,14 +8641,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9880,14 +8674,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9919,14 +8707,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9958,14 +8740,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9997,14 +8773,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10036,14 +8806,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10075,14 +8839,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10114,14 +8872,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10153,14 +8905,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10192,14 +8938,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10231,14 +8971,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10270,14 +9004,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10309,14 +9037,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10348,14 +9070,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10387,14 +9103,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10426,14 +9136,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10465,14 +9169,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10501,17 +9199,11 @@
         <v>3240.77714851</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10540,17 +9232,11 @@
         <v>3240.65144851</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10579,17 +9265,11 @@
         <v>3255.75874851</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10618,17 +9298,11 @@
         <v>3255.60674851</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10657,17 +9331,11 @@
         <v>3255.60674851</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10696,17 +9364,11 @@
         <v>3211.44823152</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10735,17 +9397,11 @@
         <v>3227.75153152</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10774,17 +9430,11 @@
         <v>3228.35473152</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10813,17 +9463,11 @@
         <v>3228.35473152</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10852,17 +9496,11 @@
         <v>3238.38183152</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10894,14 +9532,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10933,14 +9565,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10969,17 +9595,11 @@
         <v>3266.04043152</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11008,17 +9628,11 @@
         <v>3299.67483152</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11050,14 +9664,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11089,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11128,14 +9730,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11167,14 +9763,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11206,14 +9796,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11245,14 +9829,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11284,14 +9862,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11323,14 +9895,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11362,14 +9928,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11401,14 +9961,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11440,14 +9994,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11479,14 +10027,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11518,14 +10060,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11557,14 +10093,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11596,14 +10126,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11635,14 +10159,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11674,14 +10192,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11713,14 +10225,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11749,17 +10255,11 @@
         <v>3424.99153152</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11788,17 +10288,11 @@
         <v>3424.99153152</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11827,17 +10321,11 @@
         <v>3429.61723152</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11866,17 +10354,11 @@
         <v>3429.61723152</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11905,17 +10387,11 @@
         <v>3379.61723152</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11944,17 +10420,11 @@
         <v>3383.16763152</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11983,17 +10453,11 @@
         <v>3374.60313152</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12022,17 +10486,11 @@
         <v>3435.30303152</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12061,17 +10519,11 @@
         <v>3435.30303152</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12100,17 +10552,11 @@
         <v>3435.30303152</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12139,17 +10585,11 @@
         <v>3435.30303152</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12178,17 +10618,11 @@
         <v>3305.30303152</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12217,17 +10651,11 @@
         <v>3370.23643152</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12256,17 +10684,11 @@
         <v>3370.23643152</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12298,14 +10720,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12337,14 +10753,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12376,14 +10786,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12415,14 +10819,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12454,14 +10852,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12493,14 +10885,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12532,14 +10918,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12571,14 +10951,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12610,14 +10984,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12649,14 +11017,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12688,14 +11050,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12727,14 +11083,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12766,14 +11116,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12805,14 +11149,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12844,14 +11182,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12883,14 +11215,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12922,14 +11248,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12961,14 +11281,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13000,14 +11314,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13039,14 +11347,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13078,14 +11380,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13117,14 +11413,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13156,14 +11446,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13195,14 +11479,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13234,14 +11512,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13273,14 +11545,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13312,14 +11578,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13351,14 +11611,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13390,14 +11644,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13426,17 +11674,11 @@
         <v>3585.547931520001</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13465,17 +11707,11 @@
         <v>3585.547931520001</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13504,17 +11740,11 @@
         <v>3675.163831520001</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13543,17 +11773,11 @@
         <v>3682.270031520001</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13582,17 +11806,11 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13621,17 +11839,11 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13660,17 +11872,11 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13699,17 +11905,11 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13738,17 +11938,11 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13777,17 +11971,11 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13816,17 +12004,11 @@
         <v>3623.490631520001</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13858,14 +12040,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13897,14 +12073,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13936,14 +12106,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13975,14 +12139,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14014,14 +12172,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14053,14 +12205,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14092,14 +12238,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14131,14 +12271,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14170,14 +12304,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14209,14 +12337,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14248,14 +12370,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14287,14 +12403,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14326,14 +12436,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14365,14 +12469,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14404,14 +12502,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14443,14 +12535,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14482,14 +12568,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14521,14 +12601,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14560,14 +12634,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14599,14 +12667,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14638,14 +12700,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14677,14 +12733,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14716,14 +12766,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14755,14 +12799,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14794,14 +12832,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14833,14 +12865,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14872,14 +12898,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14911,14 +12931,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14950,14 +12964,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14989,14 +12997,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15028,14 +13030,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15067,14 +13063,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15106,14 +13096,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15145,14 +13129,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15184,14 +13162,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15223,14 +13195,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15262,14 +13228,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15301,14 +13261,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15340,14 +13294,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15379,14 +13327,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15418,14 +13360,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15457,14 +13393,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15496,14 +13426,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15535,14 +13459,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15574,14 +13492,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15613,14 +13525,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15652,14 +13558,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15691,14 +13591,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15730,14 +13624,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15769,14 +13657,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15808,14 +13690,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15844,17 +13720,11 @@
         <v>3597.89823302</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15883,17 +13753,11 @@
         <v>3628.18673152</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15922,17 +13786,11 @@
         <v>3641.22323152</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15961,17 +13819,11 @@
         <v>3706.86513152</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16000,17 +13852,11 @@
         <v>3812.84502433</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16039,17 +13885,11 @@
         <v>3812.84502433</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16078,17 +13918,11 @@
         <v>3836.58977769</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16117,17 +13951,11 @@
         <v>3836.58977769</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16156,17 +13984,11 @@
         <v>3830.10157769</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16195,17 +14017,11 @@
         <v>3890.27807769</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16234,17 +14050,11 @@
         <v>3962.025477690001</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16273,17 +14083,11 @@
         <v>4283.17617769</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16312,17 +14116,11 @@
         <v>4538.07707769</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16351,17 +14149,11 @@
         <v>5175.21387769</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16390,17 +14182,11 @@
         <v>5184.50987769</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16429,17 +14215,11 @@
         <v>5140.359377690001</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16468,17 +14248,11 @@
         <v>5219.435977690001</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16507,17 +14281,11 @@
         <v>5007.579377690001</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16546,17 +14314,11 @@
         <v>5435.253477690001</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16585,17 +14347,11 @@
         <v>5784.476977690001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16624,17 +14380,11 @@
         <v>4673.066877690001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16666,14 +14416,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16702,17 +14446,11 @@
         <v>4295.959177690002</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16741,17 +14479,11 @@
         <v>4405.110777690002</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16780,17 +14512,11 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16819,17 +14545,11 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16858,17 +14578,11 @@
         <v>4559.471642650002</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16897,17 +14611,11 @@
         <v>4410.708242650002</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16936,17 +14644,11 @@
         <v>4172.144642650002</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16975,17 +14677,11 @@
         <v>4126.404842650001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17017,14 +14713,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17053,17 +14743,11 @@
         <v>3768.422742650001</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17092,17 +14776,11 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17131,17 +14809,11 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17170,17 +14842,11 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17209,17 +14875,11 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17248,17 +14908,11 @@
         <v>3863.839342650001</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17287,17 +14941,11 @@
         <v>3705.620442650001</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17326,17 +14974,11 @@
         <v>3705.620442650001</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17365,17 +15007,11 @@
         <v>3720.520042650001</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17404,17 +15040,11 @@
         <v>3717.620042650001</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17443,17 +15073,11 @@
         <v>3802.317542650002</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17482,17 +15106,11 @@
         <v>3787.624142650001</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17521,17 +15139,11 @@
         <v>3792.144242650002</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17560,17 +15172,11 @@
         <v>3742.564642650002</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17599,17 +15205,11 @@
         <v>3742.564642650002</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17638,17 +15238,11 @@
         <v>3889.202042650002</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17677,17 +15271,11 @@
         <v>3906.318742650002</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17716,17 +15304,11 @@
         <v>4008.515842650002</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17755,17 +15337,11 @@
         <v>3714.939742650002</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17794,17 +15370,11 @@
         <v>4074.746642650002</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17833,17 +15403,11 @@
         <v>4074.746642650002</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17872,17 +15436,11 @@
         <v>3974.622442650002</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17914,14 +15472,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17953,14 +15505,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17992,14 +15538,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18031,14 +15571,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18070,14 +15604,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18109,14 +15637,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18148,14 +15670,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18187,14 +15703,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18226,14 +15736,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18265,14 +15769,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18304,14 +15802,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18343,14 +15835,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18382,14 +15868,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18421,14 +15901,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18460,14 +15934,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18499,14 +15967,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18538,14 +16000,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18577,14 +16033,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18616,14 +16066,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18655,14 +16099,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18694,14 +16132,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18733,14 +16165,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18772,14 +16198,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18811,14 +16231,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18850,14 +16264,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18889,14 +16297,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18928,14 +16330,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18967,14 +16363,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19006,14 +16396,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19045,14 +16429,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19084,14 +16462,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19120,23 +16492,15 @@
         <v>6834.473932890004</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>61600</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
-        <v>1.152467532467533</v>
-      </c>
-      <c r="M477" t="n">
-        <v>1.017227235438884</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -19194,7 +16558,7 @@
         <v>6240.467332890003</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19227,7 +16591,7 @@
         <v>5848.139532890003</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19260,7 +16624,7 @@
         <v>6206.700926820004</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19293,7 +16657,7 @@
         <v>6331.656926820004</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19326,7 +16690,7 @@
         <v>6481.229226820004</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19359,7 +16723,7 @@
         <v>6237.414626820004</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19392,7 +16756,7 @@
         <v>6539.457126820003</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19425,7 +16789,7 @@
         <v>6976.083026820003</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19458,7 +16822,7 @@
         <v>6759.631595600003</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19491,7 +16855,7 @@
         <v>6736.736095600004</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -19524,7 +16888,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -19557,7 +16921,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19590,7 +16954,7 @@
         <v>7036.398395600004</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19623,7 +16987,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19656,7 +17020,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19689,7 +17053,7 @@
         <v>7080.691395600004</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19722,7 +17086,7 @@
         <v>6959.672395600004</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19755,7 +17119,7 @@
         <v>6819.851695600004</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19788,7 +17152,7 @@
         <v>6686.082095600004</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19821,7 +17185,7 @@
         <v>6529.383995600005</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19854,7 +17218,7 @@
         <v>6843.295795600005</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19887,7 +17251,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19920,7 +17284,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19953,7 +17317,7 @@
         <v>6134.219570280005</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19986,7 +17350,7 @@
         <v>6868.871070280004</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -20019,7 +17383,7 @@
         <v>6779.591570280005</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -20052,7 +17416,7 @@
         <v>6994.138270280005</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -20085,7 +17449,7 @@
         <v>7058.538270280004</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -20151,7 +17515,7 @@
         <v>6808.501763070004</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -20217,7 +17581,7 @@
         <v>6642.713063070004</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20250,7 +17614,7 @@
         <v>6709.464663070004</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20283,7 +17647,7 @@
         <v>6652.434763070003</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20316,7 +17680,7 @@
         <v>6676.811663070003</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20349,7 +17713,7 @@
         <v>6634.811663070003</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20382,7 +17746,7 @@
         <v>6584.660463070003</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20415,7 +17779,7 @@
         <v>6564.946163070003</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20448,7 +17812,7 @@
         <v>6316.615463070003</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20481,7 +17845,7 @@
         <v>6387.721863070003</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20514,7 +17878,7 @@
         <v>6388.071863070003</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20547,7 +17911,7 @@
         <v>6372.453663070003</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20580,7 +17944,7 @@
         <v>6377.391663070003</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20613,7 +17977,7 @@
         <v>6356.436963070003</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20646,7 +18010,7 @@
         <v>6356.436963070003</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20679,7 +18043,7 @@
         <v>6357.419815590003</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20712,7 +18076,7 @@
         <v>6384.362515590003</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20745,7 +18109,7 @@
         <v>6337.887915590003</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20778,7 +18142,7 @@
         <v>6337.887915590003</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20811,7 +18175,7 @@
         <v>6332.595615590003</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20844,7 +18208,7 @@
         <v>6196.064515590003</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20877,7 +18241,7 @@
         <v>6157.888289340003</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20910,7 +18274,7 @@
         <v>5792.498989340003</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20943,7 +18307,7 @@
         <v>5711.322689340003</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20976,7 +18340,7 @@
         <v>5552.096964750003</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -21009,7 +18373,7 @@
         <v>5711.643664750003</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -21042,7 +18406,7 @@
         <v>5662.679764750003</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -21075,7 +18439,7 @@
         <v>5661.918864750003</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -21108,7 +18472,7 @@
         <v>5587.605164750003</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -21141,7 +18505,7 @@
         <v>5587.753064750003</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -21174,7 +18538,7 @@
         <v>5572.753164750004</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21207,7 +18571,7 @@
         <v>5536.383064750004</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21240,7 +18604,7 @@
         <v>5536.383064750004</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -21273,7 +18637,7 @@
         <v>5555.085064750004</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21306,7 +18670,7 @@
         <v>5532.131072130004</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21339,7 +18703,7 @@
         <v>5420.571572130004</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21372,7 +18736,7 @@
         <v>5368.889072130004</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21405,7 +18769,7 @@
         <v>5411.914872130004</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21438,7 +18802,7 @@
         <v>5411.914872130004</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21471,7 +18835,7 @@
         <v>5411.914872130004</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21504,7 +18868,7 @@
         <v>5407.108931940004</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21537,7 +18901,7 @@
         <v>5381.460131940004</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21570,7 +18934,7 @@
         <v>5316.525231940004</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21603,7 +18967,7 @@
         <v>5607.216531940005</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21636,7 +19000,7 @@
         <v>5631.832831940004</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21669,7 +19033,7 @@
         <v>5569.261931940005</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21702,7 +19066,7 @@
         <v>5569.261931940005</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21735,7 +19099,7 @@
         <v>5569.261931940005</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21768,7 +19132,7 @@
         <v>5569.261931940005</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -23583,7 +20947,7 @@
         <v>5198.951079620004</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23616,7 +20980,7 @@
         <v>5166.778779620004</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23649,7 +21013,7 @@
         <v>5211.979379620004</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23682,7 +21046,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23715,7 +21079,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23748,7 +21112,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23781,7 +21145,7 @@
         <v>5244.142279620004</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23814,7 +21178,7 @@
         <v>5248.907579620004</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23847,7 +21211,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23880,7 +21244,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23913,7 +21277,7 @@
         <v>5282.764979620005</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23946,7 +21310,7 @@
         <v>5291.986179620005</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23979,7 +21343,7 @@
         <v>5284.437079620005</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24012,7 +21376,7 @@
         <v>5284.371579620005</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24045,7 +21409,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24078,7 +21442,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24144,7 +21508,7 @@
         <v>5285.737379620005</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24177,7 +21541,7 @@
         <v>5300.496179620004</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24210,7 +21574,7 @@
         <v>5291.804879620004</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24408,7 +21772,7 @@
         <v>5094.784479620004</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -31305,7 +28669,7 @@
         <v>4825.406550210003</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31338,7 +28702,7 @@
         <v>4818.181950210003</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31371,7 +28735,7 @@
         <v>4825.933150210003</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31569,7 +28933,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31602,7 +28966,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31635,7 +28999,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31701,7 +29065,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31734,7 +29098,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31800,7 +29164,7 @@
         <v>4807.590450210003</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31866,7 +29230,7 @@
         <v>4780.844350210003</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -32394,7 +29758,7 @@
         <v>4762.301450210001</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32460,7 +29824,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -32493,7 +29857,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -32526,7 +29890,7 @@
         <v>4778.003450210002</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -33098,6 +30462,6 @@
       <c r="M900" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest LTC.xlsx
+++ b/BackTest/2019-10-26 BackTest LTC.xlsx
@@ -841,11 +841,19 @@
         <v>666.7711259</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>61950</v>
+      </c>
+      <c r="J12" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,11 +882,19 @@
         <v>666.7361259</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J13" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -907,11 +923,19 @@
         <v>687.4505259</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J14" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -940,11 +964,19 @@
         <v>687.2462259</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J15" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -978,10 +1010,12 @@
       <c r="I16" t="n">
         <v>61800</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>61600</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1017,7 +1051,9 @@
       <c r="I17" t="n">
         <v>61700</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>61600</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1056,7 +1092,9 @@
       <c r="I18" t="n">
         <v>61700</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>61600</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1095,7 +1133,9 @@
       <c r="I19" t="n">
         <v>61700</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>61600</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1129,10 +1169,14 @@
         <v>1011.2998259</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J20" t="n">
+        <v>61600</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1166,10 +1210,14 @@
         <v>1286.6387259</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J21" t="n">
+        <v>61600</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1203,10 +1251,14 @@
         <v>657.0981743000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J22" t="n">
+        <v>61600</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,10 +1292,14 @@
         <v>656.4581743000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>62200</v>
+      </c>
+      <c r="J23" t="n">
+        <v>61600</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1277,10 +1333,14 @@
         <v>652.1523743000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>62150</v>
+      </c>
+      <c r="J24" t="n">
+        <v>61600</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1317,7 +1377,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>61600</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1354,7 +1416,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>61600</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1391,7 +1455,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>61600</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1425,10 +1491,14 @@
         <v>787.0915743000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>61950</v>
+      </c>
+      <c r="J28" t="n">
+        <v>61600</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1462,10 +1532,14 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>61600</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1499,10 +1573,14 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J30" t="n">
+        <v>61600</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1539,7 +1617,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>61600</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1573,10 +1653,14 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J32" t="n">
+        <v>61600</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1610,10 +1694,14 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J33" t="n">
+        <v>61600</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1647,10 +1735,14 @@
         <v>754.0453743</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J34" t="n">
+        <v>61600</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1684,10 +1776,14 @@
         <v>796.7704743</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>62050</v>
+      </c>
+      <c r="J35" t="n">
+        <v>61600</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1721,10 +1817,14 @@
         <v>794.0494743</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>62150</v>
+      </c>
+      <c r="J36" t="n">
+        <v>61600</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1758,10 +1858,14 @@
         <v>794.0494743</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J37" t="n">
+        <v>61600</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1798,7 +1902,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>61600</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,7 +1941,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>61600</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1869,10 +1977,14 @@
         <v>719.4524743000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J40" t="n">
+        <v>61600</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1906,10 +2018,14 @@
         <v>719.7139743</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>61700</v>
+      </c>
+      <c r="J41" t="n">
+        <v>61600</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1943,10 +2059,14 @@
         <v>647.6505743</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J42" t="n">
+        <v>61600</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1980,10 +2100,14 @@
         <v>650.5519743</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>61600</v>
+      </c>
+      <c r="J43" t="n">
+        <v>61600</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2017,10 +2141,14 @@
         <v>719.5963743</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>61800</v>
+      </c>
+      <c r="J44" t="n">
+        <v>61600</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,10 +2182,14 @@
         <v>722.1533743</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>61900</v>
+      </c>
+      <c r="J45" t="n">
+        <v>61600</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2094,7 +2226,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>61600</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,7 +2265,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>61600</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2165,10 +2301,14 @@
         <v>899.6647743</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J48" t="n">
+        <v>61600</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2202,10 +2342,14 @@
         <v>867.0991743</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>62300</v>
+      </c>
+      <c r="J49" t="n">
+        <v>61600</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2239,10 +2383,14 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>62200</v>
+      </c>
+      <c r="J50" t="n">
+        <v>61600</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,10 +2424,14 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J51" t="n">
+        <v>61600</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2313,10 +2465,14 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>62100</v>
+      </c>
+      <c r="J52" t="n">
+        <v>61600</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2350,10 +2506,14 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>61600</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2387,10 +2547,14 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>61600</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2424,10 +2588,14 @@
         <v>1081.1925743</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>62000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>61600</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2464,7 +2632,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>61600</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2501,7 +2671,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>61600</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2538,7 +2710,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>61600</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2575,7 +2749,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>61600</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,7 +2788,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>61600</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2649,7 +2827,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>61600</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,7 +2866,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>61600</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2723,7 +2905,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>61600</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,7 +2944,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>61600</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2797,7 +2983,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>61600</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,7 +3022,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>61600</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2871,7 +3061,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>61600</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,7 +3100,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>61600</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2945,7 +3139,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>61600</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2982,7 +3178,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>61600</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,7 +3217,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>61600</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,7 +3256,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>61600</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,7 +3295,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>61600</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,7 +3334,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>61600</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,7 +3373,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>61600</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,7 +3412,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>61600</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,7 +3451,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>61600</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,7 +3490,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>61600</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3315,7 +3529,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>61600</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,7 +3568,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>61600</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,7 +3607,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>61600</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,7 +3646,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>61600</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3463,7 +3685,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>61600</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,7 +3724,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>61600</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3537,7 +3763,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>61600</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,7 +3802,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>61600</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3611,7 +3841,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>61600</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,7 +3880,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>61600</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,7 +3919,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>61600</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,16 +3955,20 @@
         <v>2607.9763743</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>61600</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3754,11 +3994,17 @@
         <v>4133.0873743</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +4033,17 @@
         <v>3790.8735743</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +4072,17 @@
         <v>3235.4375743</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +4111,17 @@
         <v>3475.5708743</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +4150,17 @@
         <v>2933.0077743</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +4189,17 @@
         <v>2517.8485743</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3955,8 +4231,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3988,8 +4270,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +4306,17 @@
         <v>2654.8389743</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4345,17 @@
         <v>2838.1350743</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4087,8 +4387,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4117,11 +4423,17 @@
         <v>3050.4854743</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4153,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4186,8 +4504,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4219,8 +4543,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4252,8 +4582,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4285,8 +4621,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4318,8 +4660,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4351,8 +4699,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4384,8 +4738,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4417,8 +4777,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4813,17 @@
         <v>3400.189974299999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4852,17 @@
         <v>3396.3874743</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4891,17 @@
         <v>3403.8300743</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +4930,17 @@
         <v>3404.6495743</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +4969,17 @@
         <v>3439.4439743</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +5008,17 @@
         <v>3704.6191743</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4645,11 +5047,17 @@
         <v>3276.16123315</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +5086,17 @@
         <v>3499.28274534</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +5125,17 @@
         <v>3078.80899583</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +5164,17 @@
         <v>2923.85449583</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +5203,17 @@
         <v>2854.68299583</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +5242,17 @@
         <v>2757.59599583</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4843,11 +5281,17 @@
         <v>2805.50709583</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +5320,17 @@
         <v>2857.51859583</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +5359,17 @@
         <v>2801.42259583</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +5398,17 @@
         <v>2850.56839583</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +5437,17 @@
         <v>2850.36839583</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5008,11 +5476,17 @@
         <v>2850.36839583</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +5515,17 @@
         <v>2955.43029583</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +5554,17 @@
         <v>2944.904295830001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +5593,17 @@
         <v>2945.004295830001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +5632,17 @@
         <v>2961.82029583</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5173,11 +5671,17 @@
         <v>2982.75649583</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +5710,17 @@
         <v>2971.75649583</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5242,8 +5752,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5275,8 +5791,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5308,8 +5830,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5341,8 +5869,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5908,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5407,8 +5947,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +5983,17 @@
         <v>3409.889795830001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +6022,17 @@
         <v>3403.124095830001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +6061,17 @@
         <v>3414.595295830001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +6100,17 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +6139,17 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5602,11 +6178,17 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +6217,17 @@
         <v>3351.770071250001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5668,11 +6256,17 @@
         <v>3403.037071250001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5701,11 +6295,17 @@
         <v>3382.989771250001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5734,11 +6334,17 @@
         <v>3382.989771250001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5767,11 +6373,17 @@
         <v>3374.04317125</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5800,11 +6412,17 @@
         <v>3374.04317125</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5833,11 +6451,17 @@
         <v>3412.52587125</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5866,11 +6490,17 @@
         <v>3412.802271250001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5899,11 +6529,17 @@
         <v>3290.373971250001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5932,11 +6568,17 @@
         <v>3290.44627125</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +6607,17 @@
         <v>3452.856671250001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +6646,17 @@
         <v>3513.856671250001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +6685,17 @@
         <v>3696.88857125</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +6724,17 @@
         <v>3736.75817125</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +6763,17 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +6802,17 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6163,11 +6841,17 @@
         <v>3589.986871250001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +6880,17 @@
         <v>3651.399071250001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6229,11 +6919,17 @@
         <v>4376.776471250001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6262,11 +6958,17 @@
         <v>4263.304097450001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6295,11 +6997,17 @@
         <v>4137.475597450001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +7036,17 @@
         <v>4745.994181760001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6361,11 +7075,17 @@
         <v>4597.632781760001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +7114,17 @@
         <v>4468.449359380002</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6427,11 +7153,17 @@
         <v>4385.066559380001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6460,11 +7192,17 @@
         <v>4401.704459380001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6493,11 +7231,17 @@
         <v>4639.177559380001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +7270,17 @@
         <v>4803.767259380002</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6559,11 +7309,17 @@
         <v>4740.820230380002</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6592,11 +7348,17 @@
         <v>4644.201730380002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6625,11 +7387,17 @@
         <v>4072.055330380002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6658,11 +7426,17 @@
         <v>3821.564230380002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6691,11 +7465,17 @@
         <v>3821.564230380002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6724,11 +7504,17 @@
         <v>3821.814230380002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6757,11 +7543,17 @@
         <v>3889.401130380002</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6790,11 +7582,17 @@
         <v>3885.135430380002</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6823,11 +7621,17 @@
         <v>3848.802030380002</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6856,11 +7660,17 @@
         <v>3848.802030380002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6889,11 +7699,17 @@
         <v>3756.981130380002</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +7741,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +7780,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6991,8 +7819,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7024,8 +7858,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7057,8 +7897,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7090,8 +7936,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7123,8 +7975,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +8014,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +8053,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +8092,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7252,11 +8128,17 @@
         <v>3653.531413180001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7285,11 +8167,17 @@
         <v>3611.163213180002</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +8206,17 @@
         <v>3610.059913180001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +8248,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +8287,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +8326,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +8365,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +8404,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +8443,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +8482,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +8521,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +8560,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7651,8 +8599,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8638,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7717,8 +8677,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7750,8 +8716,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7783,8 +8755,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7816,8 +8794,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8833,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8872,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7915,8 +8911,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7948,8 +8950,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7981,8 +8989,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8014,8 +9028,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8047,8 +9067,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8080,8 +9106,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8113,8 +9145,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8146,8 +9184,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8179,8 +9223,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8212,8 +9262,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8245,8 +9301,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8278,8 +9340,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8311,8 +9379,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8344,8 +9418,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8377,8 +9457,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8410,8 +9496,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8443,8 +9535,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8476,8 +9574,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8509,8 +9613,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +9652,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8575,8 +9691,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8608,8 +9730,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8641,8 +9769,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +9808,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8707,8 +9847,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +9886,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8773,8 +9925,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8806,8 +9964,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8839,8 +10003,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8872,8 +10042,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8905,8 +10081,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8938,8 +10120,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8971,8 +10159,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9004,8 +10198,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9037,8 +10237,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9070,8 +10276,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9103,8 +10315,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9136,8 +10354,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9169,8 +10393,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9199,11 +10429,17 @@
         <v>3240.77714851</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9232,11 +10468,17 @@
         <v>3240.65144851</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +10507,17 @@
         <v>3255.75874851</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9298,11 +10546,17 @@
         <v>3255.60674851</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9331,11 +10585,17 @@
         <v>3255.60674851</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +10624,17 @@
         <v>3211.44823152</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9397,11 +10663,17 @@
         <v>3227.75153152</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9430,11 +10702,17 @@
         <v>3228.35473152</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +10741,17 @@
         <v>3228.35473152</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +10780,17 @@
         <v>3238.38183152</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9532,8 +10822,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +10861,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9595,11 +10897,17 @@
         <v>3266.04043152</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9628,11 +10936,17 @@
         <v>3299.67483152</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +10978,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +11017,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +11056,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +11095,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +11134,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +11173,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +11212,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +11251,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +11290,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +11329,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +11368,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +11407,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10060,8 +11446,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10093,8 +11485,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10126,8 +11524,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +11563,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10192,8 +11602,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10225,8 +11641,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10255,11 +11677,17 @@
         <v>3424.99153152</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10288,11 +11716,17 @@
         <v>3424.99153152</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10321,11 +11755,17 @@
         <v>3429.61723152</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +11794,17 @@
         <v>3429.61723152</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10387,11 +11833,17 @@
         <v>3379.61723152</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10420,11 +11872,17 @@
         <v>3383.16763152</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10453,11 +11911,17 @@
         <v>3374.60313152</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10486,11 +11950,17 @@
         <v>3435.30303152</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10519,11 +11989,17 @@
         <v>3435.30303152</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10552,11 +12028,17 @@
         <v>3435.30303152</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10585,11 +12067,17 @@
         <v>3435.30303152</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10618,11 +12106,17 @@
         <v>3305.30303152</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10651,11 +12145,17 @@
         <v>3370.23643152</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10684,11 +12184,17 @@
         <v>3370.23643152</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10720,8 +12226,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10753,8 +12265,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10786,8 +12304,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +12343,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +12382,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +12421,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10918,8 +12460,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10951,8 +12499,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +12538,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +12577,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11050,8 +12616,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11083,8 +12655,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11116,8 +12694,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11149,8 +12733,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11182,8 +12772,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11215,8 +12811,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11248,8 +12850,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11281,8 +12889,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +12928,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11347,8 +12967,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11380,8 +13006,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11413,8 +13045,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11446,8 +13084,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11479,8 +13123,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11512,8 +13162,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11545,8 +13201,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11578,8 +13240,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11611,8 +13279,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11644,8 +13318,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11674,11 +13354,17 @@
         <v>3585.547931520001</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11707,11 +13393,17 @@
         <v>3585.547931520001</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11740,11 +13432,17 @@
         <v>3675.163831520001</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11773,11 +13471,17 @@
         <v>3682.270031520001</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11806,11 +13510,17 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11839,11 +13549,17 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11872,11 +13588,17 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11905,11 +13627,17 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11938,11 +13666,17 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11971,11 +13705,17 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12004,11 +13744,17 @@
         <v>3623.490631520001</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12040,8 +13786,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12073,8 +13825,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12106,8 +13864,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12139,8 +13903,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12172,8 +13942,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12205,8 +13981,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12238,8 +14020,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12271,8 +14059,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12304,8 +14098,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12337,8 +14137,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12370,8 +14176,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12403,8 +14215,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12436,8 +14254,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12469,8 +14293,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12502,8 +14332,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12535,8 +14371,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12568,8 +14410,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12601,8 +14449,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12634,8 +14488,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12667,8 +14527,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12700,8 +14566,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12733,8 +14605,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12766,8 +14644,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12799,8 +14683,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12832,8 +14722,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12865,8 +14761,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12898,8 +14800,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12931,8 +14839,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12964,8 +14878,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12997,8 +14917,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13030,8 +14956,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13063,8 +14995,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13096,8 +15034,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13129,8 +15073,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13162,8 +15112,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13195,8 +15151,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13228,8 +15190,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13261,8 +15229,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13294,8 +15268,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13327,8 +15307,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13360,8 +15346,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13393,8 +15385,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13426,8 +15424,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13459,8 +15463,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13492,8 +15502,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13525,8 +15541,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13558,8 +15580,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13591,8 +15619,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13624,8 +15658,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13657,8 +15697,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13690,8 +15736,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13720,11 +15772,17 @@
         <v>3597.89823302</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13753,11 +15811,17 @@
         <v>3628.18673152</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13786,11 +15850,17 @@
         <v>3641.22323152</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13819,11 +15889,17 @@
         <v>3706.86513152</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13852,11 +15928,17 @@
         <v>3812.84502433</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13885,11 +15967,17 @@
         <v>3812.84502433</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13918,11 +16006,17 @@
         <v>3836.58977769</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13951,11 +16045,17 @@
         <v>3836.58977769</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13984,11 +16084,17 @@
         <v>3830.10157769</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14017,11 +16123,17 @@
         <v>3890.27807769</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14050,11 +16162,17 @@
         <v>3962.025477690001</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14083,11 +16201,17 @@
         <v>4283.17617769</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14116,11 +16240,17 @@
         <v>4538.07707769</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14149,11 +16279,17 @@
         <v>5175.21387769</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14182,11 +16318,17 @@
         <v>5184.50987769</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14215,11 +16357,17 @@
         <v>5140.359377690001</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14248,11 +16396,17 @@
         <v>5219.435977690001</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14281,11 +16435,17 @@
         <v>5007.579377690001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14314,11 +16474,17 @@
         <v>5435.253477690001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14347,11 +16513,17 @@
         <v>5784.476977690001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14380,11 +16552,17 @@
         <v>4673.066877690001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14416,8 +16594,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14446,11 +16630,17 @@
         <v>4295.959177690002</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14479,11 +16669,17 @@
         <v>4405.110777690002</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14512,11 +16708,17 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14545,11 +16747,17 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14578,11 +16786,17 @@
         <v>4559.471642650002</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14611,11 +16825,17 @@
         <v>4410.708242650002</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14644,11 +16864,17 @@
         <v>4172.144642650002</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14677,11 +16903,17 @@
         <v>4126.404842650001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14713,8 +16945,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14743,11 +16981,17 @@
         <v>3768.422742650001</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14776,11 +17020,17 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14809,11 +17059,17 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14842,11 +17098,17 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14875,11 +17137,17 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14908,11 +17176,17 @@
         <v>3863.839342650001</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14941,11 +17215,17 @@
         <v>3705.620442650001</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14974,11 +17254,17 @@
         <v>3705.620442650001</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15007,11 +17293,17 @@
         <v>3720.520042650001</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15040,11 +17332,17 @@
         <v>3717.620042650001</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15073,11 +17371,17 @@
         <v>3802.317542650002</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15106,11 +17410,17 @@
         <v>3787.624142650001</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15139,11 +17449,17 @@
         <v>3792.144242650002</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15172,11 +17488,17 @@
         <v>3742.564642650002</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15205,11 +17527,17 @@
         <v>3742.564642650002</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +17566,17 @@
         <v>3889.202042650002</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15271,11 +17605,17 @@
         <v>3906.318742650002</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15304,11 +17644,17 @@
         <v>4008.515842650002</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15337,11 +17683,17 @@
         <v>3714.939742650002</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15370,11 +17722,17 @@
         <v>4074.746642650002</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15403,11 +17761,17 @@
         <v>4074.746642650002</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15436,11 +17800,17 @@
         <v>3974.622442650002</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15472,8 +17842,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15505,8 +17881,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15538,8 +17920,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15571,8 +17959,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15604,8 +17998,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15637,8 +18037,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15670,8 +18076,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15703,8 +18115,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15736,8 +18154,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15769,8 +18193,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15802,8 +18232,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15835,8 +18271,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15868,8 +18310,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15901,8 +18349,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15934,8 +18388,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15967,8 +18427,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16000,8 +18466,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16033,8 +18505,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16066,8 +18544,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16099,8 +18583,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16132,8 +18622,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16165,8 +18661,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16198,8 +18700,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16231,8 +18739,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16264,8 +18778,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16297,8 +18817,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16330,8 +18856,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16363,8 +18895,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16396,8 +18934,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16429,8 +18973,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16459,15 +19009,23 @@
         <v>7124.846332330004</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>61600</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
+        <v>1.168701298701299</v>
+      </c>
+      <c r="M476" t="n">
+        <v>1.017227235438884</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -16492,7 +19050,7 @@
         <v>6834.473932890004</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16525,7 +19083,7 @@
         <v>6679.703032890004</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16558,7 +19116,7 @@
         <v>6240.467332890003</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16591,7 +19149,7 @@
         <v>5848.139532890003</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16624,7 +19182,7 @@
         <v>6206.700926820004</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16690,7 +19248,7 @@
         <v>6481.229226820004</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16723,7 +19281,7 @@
         <v>6237.414626820004</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16756,7 +19314,7 @@
         <v>6539.457126820003</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16789,7 +19347,7 @@
         <v>6976.083026820003</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16822,7 +19380,7 @@
         <v>6759.631595600003</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16855,7 +19413,7 @@
         <v>6736.736095600004</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16888,7 +19446,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16921,7 +19479,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16954,7 +19512,7 @@
         <v>7036.398395600004</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16987,7 +19545,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17020,7 +19578,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17053,7 +19611,7 @@
         <v>7080.691395600004</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17086,7 +19644,7 @@
         <v>6959.672395600004</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17119,7 +19677,7 @@
         <v>6819.851695600004</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17152,7 +19710,7 @@
         <v>6686.082095600004</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17185,7 +19743,7 @@
         <v>6529.383995600005</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17218,7 +19776,7 @@
         <v>6843.295795600005</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17251,7 +19809,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17284,7 +19842,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17317,7 +19875,7 @@
         <v>6134.219570280005</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17350,7 +19908,7 @@
         <v>6868.871070280004</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17383,7 +19941,7 @@
         <v>6779.591570280005</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17449,7 +20007,7 @@
         <v>7058.538270280004</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17647,7 +20205,7 @@
         <v>6652.434763070003</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20947,7 +23505,7 @@
         <v>5198.951079620004</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20980,7 +23538,7 @@
         <v>5166.778779620004</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21013,7 +23571,7 @@
         <v>5211.979379620004</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21046,7 +23604,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21079,7 +23637,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21112,7 +23670,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21145,7 +23703,7 @@
         <v>5244.142279620004</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21178,7 +23736,7 @@
         <v>5248.907579620004</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21211,7 +23769,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21244,7 +23802,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21277,7 +23835,7 @@
         <v>5282.764979620005</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21310,7 +23868,7 @@
         <v>5291.986179620005</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21343,7 +23901,7 @@
         <v>5284.437079620005</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21376,7 +23934,7 @@
         <v>5284.371579620005</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21409,7 +23967,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21442,7 +24000,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21508,7 +24066,7 @@
         <v>5285.737379620005</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21541,7 +24099,7 @@
         <v>5300.496179620004</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21574,7 +24132,7 @@
         <v>5291.804879620004</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21772,7 +24330,7 @@
         <v>5094.784479620004</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -28669,7 +31227,7 @@
         <v>4825.406550210003</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28702,7 +31260,7 @@
         <v>4818.181950210003</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28735,7 +31293,7 @@
         <v>4825.933150210003</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28933,7 +31491,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28966,7 +31524,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28999,7 +31557,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29065,7 +31623,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29098,7 +31656,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29164,7 +31722,7 @@
         <v>4807.590450210003</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29230,7 +31788,7 @@
         <v>4780.844350210003</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29758,7 +32316,7 @@
         <v>4762.301450210001</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29824,7 +32382,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29857,7 +32415,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29890,7 +32448,7 @@
         <v>4778.003450210002</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
